--- a/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -281,10 +281,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: entry-conflict (use: OFFICIAL)</t>
+    <t>http://fhir.ch/ig/ch-vacd/cs/entry-conflict#entry-conflict (use: official)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:15:40+01:00</t>
+    <t>2024-05-17T07:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-vacd/cs/entry-conflict#entry-conflict (use: official)</t>
+    <t>http://fhir.ch/ig/ch-vacd/cs/entry-conflict#entry-conflict (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:15:18+00:00</t>
+    <t>2024-12-18T07:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -27,16 +27,10 @@
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-clinical-decision-support-event-cs</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-vacd/cs/entry-conflict#entry-conflict (use: official, )</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,7 +287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -403,15 +397,15 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -425,54 +419,46 @@
       <c r="A16" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>30</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>36</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -490,39 +476,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>41</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-clinical-decision-support-event-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
